--- a/Human Library Book Titles-to print.xlsx
+++ b/Human Library Book Titles-to print.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Documents\GitHub\HumanLibrarySignGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6217FBD3-14C2-43E5-8A0F-6A74A5BB2FF8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039AD642-BD62-4F20-8AE9-A0E6A0CEB2F6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="250">
   <si>
     <t>Name</t>
   </si>
@@ -710,9 +710,6 @@
   </si>
   <si>
     <t>Gen Question4</t>
-  </si>
-  <si>
-    <t>How did this affect you in different settings (friendsl, family, stranger's)?</t>
   </si>
   <si>
     <t>If you had the opportunity to go back and change it or be different, would you?</t>
@@ -1208,7 +1205,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1217,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1230,11 +1227,11 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -1685,7 +1682,7 @@
         <v>176</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>177</v>
@@ -1962,13 +1959,13 @@
     </row>
     <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>8</v>
@@ -1982,13 +1979,13 @@
     </row>
     <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>238</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>8</v>
@@ -2018,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,7 +2034,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -2091,16 +2088,16 @@
         <v>182</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>184</v>
@@ -2123,16 +2120,16 @@
         <v>123</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>125</v>
@@ -2155,16 +2152,16 @@
         <v>172</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>173</v>
@@ -2187,16 +2184,16 @@
         <v>150</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>152</v>
@@ -2219,16 +2216,16 @@
         <v>95</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>97</v>
@@ -2251,16 +2248,16 @@
         <v>215</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>189</v>
@@ -2283,16 +2280,16 @@
         <v>216</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -2309,16 +2306,16 @@
         <v>162</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>163</v>
@@ -2341,16 +2338,16 @@
         <v>118</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>119</v>
@@ -2373,16 +2370,16 @@
         <v>84</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>86</v>
@@ -2405,16 +2402,16 @@
         <v>106</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>109</v>
@@ -2437,16 +2434,16 @@
         <v>90</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>91</v>
@@ -2469,16 +2466,16 @@
         <v>167</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>168</v>
@@ -2501,16 +2498,16 @@
         <v>129</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>131</v>
@@ -2533,16 +2530,16 @@
         <v>217</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>135</v>
@@ -2565,16 +2562,16 @@
         <v>148</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>108</v>
@@ -2599,16 +2596,16 @@
         <v>46</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>47</v>
@@ -2631,16 +2628,16 @@
         <v>218</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>25</v>
@@ -2663,16 +2660,16 @@
         <v>78</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>80</v>
@@ -2695,16 +2692,16 @@
         <v>38</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>39</v>
@@ -2731,16 +2728,16 @@
         <v>33</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>34</v>
@@ -2760,19 +2757,19 @@
         <v>176</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>178</v>
@@ -2795,16 +2792,16 @@
         <v>67</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>69</v>
@@ -2827,16 +2824,16 @@
         <v>138</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>11</v>
@@ -2865,16 +2862,16 @@
         <v>199</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>201</v>
@@ -2895,16 +2892,16 @@
         <v>219</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>58</v>
@@ -2927,16 +2924,16 @@
         <v>113</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>114</v>
@@ -2959,16 +2956,16 @@
         <v>18</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>20</v>
@@ -2991,16 +2988,16 @@
         <v>156</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>158</v>
@@ -3023,16 +3020,16 @@
         <v>62</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>63</v>
@@ -3055,16 +3052,16 @@
         <v>51</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>53</v>
@@ -3087,16 +3084,16 @@
         <v>204</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>206</v>
@@ -3119,16 +3116,16 @@
         <v>193</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>197</v>
@@ -3151,16 +3148,16 @@
         <v>220</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>74</v>
@@ -3183,16 +3180,16 @@
         <v>221</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>28</v>
@@ -3211,31 +3208,31 @@
     </row>
     <row r="38" spans="1:12" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="C38" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G38" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="G38" s="21" t="s">
+      <c r="H38" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="H38" s="21" t="s">
+      <c r="I38" s="21" t="s">
         <v>245</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>246</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
@@ -3243,31 +3240,31 @@
     </row>
     <row r="39" spans="1:12" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>237</v>
-      </c>
       <c r="C39" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G39" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="H39" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="I39" s="13" t="s">
         <v>240</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>241</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
